--- a/data/raw/caa_passenger_movements_unclean.xlsx
+++ b/data/raw/caa_passenger_movements_unclean.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Data Warehouse\Sri-Lankan-Airlines-Data-Warehouse-\data_sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Data Warehouse\Sri-Lankan-Airlines-Data-Warehouse-\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBA2B8-DD13-4521-A72F-4E39A40CD480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A08FE7-6E24-4379-B8CF-7CB99B30D59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9270" xr2:uid="{9544698E-F046-4F78-8AE2-2861DCF90F5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9544698E-F046-4F78-8AE2-2861DCF90F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>airport_iata</t>
   </si>
@@ -62,16 +62,10 @@
     <t>2023-Jan</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
     <t>MRIA</t>
   </si>
   <si>
     <t>2023-01</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>2023-Feb</t>
@@ -504,7 +498,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,10 +531,10 @@
         <v>44927</v>
       </c>
       <c r="C2" s="4">
-        <v>12345</v>
+        <v>2345</v>
       </c>
       <c r="D2" s="4">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -554,10 +548,10 @@
         <v>44927</v>
       </c>
       <c r="C3" s="2">
-        <v>12345</v>
+        <v>2845</v>
       </c>
       <c r="D3" s="2">
-        <v>1234</v>
+        <v>3452</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -574,7 +568,7 @@
         <v>12345</v>
       </c>
       <c r="D4" s="4">
-        <v>1234</v>
+        <v>7634</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -587,8 +581,8 @@
       <c r="B5" s="3">
         <v>44958</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+      <c r="C5" s="2">
+        <v>4300</v>
       </c>
       <c r="D5" s="4">
         <v>1100</v>
@@ -599,10 +593,10 @@
     </row>
     <row r="6" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>2345</v>
@@ -625,7 +619,7 @@
         <v>12345</v>
       </c>
       <c r="D7" s="4">
-        <v>1234</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -635,21 +629,25 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="B8" s="3">
+        <v>43466</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1265</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5443</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>1900</v>
@@ -680,7 +678,7 @@
     </row>
     <row r="11" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>44927</v>
@@ -697,10 +695,10 @@
     </row>
     <row r="12" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>910</v>
@@ -726,12 +724,12 @@
         <v>1302</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3">
         <v>44986</v>
@@ -740,7 +738,7 @@
         <v>2100</v>
       </c>
       <c r="D14" s="2">
-        <v>215</v>
+        <v>2156</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>6</v>
@@ -751,9 +749,11 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5325</v>
+      </c>
       <c r="D15" s="4">
         <v>1250</v>
       </c>
@@ -763,14 +763,16 @@
     </row>
     <row r="16" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42064</v>
+      </c>
       <c r="C16" s="2">
-        <v>500</v>
+        <v>5004</v>
       </c>
       <c r="D16" s="2">
-        <v>50</v>
+        <v>5007</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>6</v>
@@ -781,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <v>16000</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
+      <c r="D17" s="2">
+        <v>5003</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
@@ -795,7 +797,7 @@
     </row>
     <row r="18" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3">
         <v>44986</v>
@@ -804,7 +806,7 @@
         <v>950</v>
       </c>
       <c r="D18" s="2">
-        <v>92</v>
+        <v>9200</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
